--- a/Excel/hot/_Public.xlsx
+++ b/Excel/hot/_Public.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32100" windowHeight="13815"/>
+    <workbookView windowWidth="22395" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>str[]</t>
+  </si>
+  <si>
+    <t>[jj,kk]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A1:$XFD6"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -1009,7 +1026,22 @@
     <col min="8" max="8" width="21.375" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" customFormat="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
